--- a/results/mp/tinybert/corona/confidence/168/0.5/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="99">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,48 +40,27 @@
     <t>name</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>fears</t>
+    <t>low</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
@@ -91,112 +70,121 @@
     <t>demand</t>
   </si>
   <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>best</t>
+    <t>love</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>thanks</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>won</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
     <t>ensure</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>safe</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
-    <t>thank</t>
+    <t>healthy</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>energy</t>
+    <t>care</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>join</t>
+    <t>sure</t>
   </si>
   <si>
     <t>increase</t>
@@ -205,79 +193,124 @@
     <t>share</t>
   </si>
   <si>
-    <t>alert</t>
+    <t>increased</t>
   </si>
   <si>
     <t>$</t>
   </si>
   <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
     <t>our</t>
   </si>
   <si>
-    <t>online</t>
-  </si>
-  <si>
     <t>you</t>
   </si>
   <si>
-    <t>_</t>
+    <t>your</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>!</t>
   </si>
   <si>
     <t>store</t>
   </si>
   <si>
-    <t>!</t>
-  </si>
-  <si>
     <t>grocery</t>
   </si>
   <si>
-    <t>shopping</t>
+    <t>19</t>
   </si>
   <si>
     <t>all</t>
   </si>
   <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
     <t>and</t>
   </si>
   <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>for</t>
-  </si>
-  <si>
     <t>,</t>
   </si>
   <si>
+    <t>at</t>
+  </si>
+  <si>
+    <t>we</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
     <t>.</t>
   </si>
   <si>
-    <t>the</t>
-  </si>
-  <si>
     <t>of</t>
   </si>
   <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>as</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
     <t>to</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>co</t>
+    <t>i</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>are</t>
+  </si>
+  <si>
+    <t>this</t>
   </si>
   <si>
     <t>in</t>
   </si>
   <si>
+    <t>?</t>
+  </si>
+  <si>
     <t>corona</t>
+  </si>
+  <si>
+    <t>prices</t>
   </si>
 </sst>
 </file>
@@ -635,7 +668,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q64"/>
+  <dimension ref="A1:Q82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -643,10 +676,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -704,13 +737,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9090909090909091</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -722,19 +755,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L3">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="M3">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -746,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -754,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.88</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="C4">
+        <v>25</v>
+      </c>
+      <c r="D4">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>11</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D4">
-        <v>22</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>3</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="K4">
-        <v>1</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="L4">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M4">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -796,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -804,13 +837,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7647058823529411</v>
+        <v>0.6575342465753424</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>192</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>192</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -822,19 +855,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K5">
-        <v>0.96875</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L5">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="M5">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -846,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -854,13 +887,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7333333333333333</v>
+        <v>0.36</v>
       </c>
       <c r="C6">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -872,31 +905,31 @@
         <v>0</v>
       </c>
       <c r="H6">
+        <v>48</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6">
+        <v>0.8787878787878788</v>
+      </c>
+      <c r="L6">
+        <v>29</v>
+      </c>
+      <c r="M6">
+        <v>29</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6">
         <v>4</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6">
-        <v>0.9375</v>
-      </c>
-      <c r="L6">
-        <v>15</v>
-      </c>
-      <c r="M6">
-        <v>15</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -904,13 +937,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7207792207792207</v>
+        <v>0.2926356589147287</v>
       </c>
       <c r="C7">
-        <v>111</v>
+        <v>151</v>
       </c>
       <c r="D7">
-        <v>111</v>
+        <v>151</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -922,19 +955,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>43</v>
+        <v>365</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K7">
-        <v>0.9166666666666666</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L7">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="M7">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -946,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -954,13 +987,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5714285714285714</v>
+        <v>0.2281879194630873</v>
       </c>
       <c r="C8">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -972,19 +1005,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K8">
-        <v>0.9166666666666666</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L8">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="M8">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -996,7 +1029,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1004,13 +1037,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5</v>
+        <v>0.201058201058201</v>
       </c>
       <c r="C9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1022,19 +1055,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>12</v>
+        <v>151</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="K9">
-        <v>0.9</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L9">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="M9">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1046,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1054,13 +1087,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5</v>
+        <v>0.126984126984127</v>
       </c>
       <c r="C10">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D10">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1072,19 +1105,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>14</v>
+        <v>220</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="K10">
-        <v>0.8888888888888888</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L10">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="M10">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1096,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1104,13 +1137,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.407725321888412</v>
+        <v>0.1</v>
       </c>
       <c r="C11">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="D11">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1122,19 +1155,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>138</v>
+        <v>324</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="K11">
-        <v>0.8431372549019608</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L11">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="M11">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1146,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1154,13 +1187,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.3793103448275862</v>
+        <v>0.05630026809651475</v>
       </c>
       <c r="C12">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D12">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1172,13 +1205,13 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>18</v>
+        <v>352</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K12">
-        <v>0.8392857142857143</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L12">
         <v>47</v>
@@ -1196,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1204,37 +1237,37 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3703703703703703</v>
+        <v>0.006962864721485411</v>
       </c>
       <c r="C13">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D13">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13">
-        <v>17</v>
+        <v>2995</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K13">
-        <v>0.8333333333333334</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="L13">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="M13">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1246,7 +1279,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1254,625 +1287,505 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.2906976744186047</v>
+        <v>0.004192453583549611</v>
       </c>
       <c r="C14">
+        <v>21</v>
+      </c>
+      <c r="D14">
+        <v>177</v>
+      </c>
+      <c r="E14">
+        <v>0.88</v>
+      </c>
+      <c r="F14">
+        <v>0.12</v>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>4988</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="L14">
+        <v>19</v>
+      </c>
+      <c r="M14">
+        <v>19</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="J15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15">
+        <v>0.78125</v>
+      </c>
+      <c r="L15">
+        <v>100</v>
+      </c>
+      <c r="M15">
+        <v>100</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="J16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K16">
+        <v>0.7676056338028169</v>
+      </c>
+      <c r="L16">
+        <v>109</v>
+      </c>
+      <c r="M16">
+        <v>109</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="10:17">
+      <c r="J17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K17">
+        <v>0.72</v>
+      </c>
+      <c r="L17">
+        <v>36</v>
+      </c>
+      <c r="M17">
+        <v>36</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="10:17">
+      <c r="J18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K18">
+        <v>0.7169811320754716</v>
+      </c>
+      <c r="L18">
+        <v>76</v>
+      </c>
+      <c r="M18">
+        <v>76</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="10:17">
+      <c r="J19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K19">
+        <v>0.7037037037037037</v>
+      </c>
+      <c r="L19">
+        <v>19</v>
+      </c>
+      <c r="M19">
+        <v>19</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="10:17">
+      <c r="J20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K20">
+        <v>0.6944444444444444</v>
+      </c>
+      <c r="L20">
         <v>25</v>
       </c>
-      <c r="D14">
+      <c r="M20">
         <v>25</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="10:17">
+      <c r="J21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K21">
+        <v>0.6875</v>
+      </c>
+      <c r="L21">
+        <v>110</v>
+      </c>
+      <c r="M21">
+        <v>110</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="10:17">
+      <c r="J22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L22">
+        <v>34</v>
+      </c>
+      <c r="M22">
+        <v>34</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="10:17">
+      <c r="J23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K23">
+        <v>0.6595744680851063</v>
+      </c>
+      <c r="L23">
+        <v>31</v>
+      </c>
+      <c r="M23">
+        <v>31</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="10:17">
+      <c r="J24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K24">
+        <v>0.648936170212766</v>
+      </c>
+      <c r="L24">
         <v>61</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K14">
-        <v>0.8275862068965517</v>
-      </c>
-      <c r="L14">
+      <c r="M24">
+        <v>61</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="10:17">
+      <c r="J25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K25">
+        <v>0.6349206349206349</v>
+      </c>
+      <c r="L25">
+        <v>40</v>
+      </c>
+      <c r="M25">
+        <v>40</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="10:17">
+      <c r="J26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K26">
+        <v>0.6111111111111112</v>
+      </c>
+      <c r="L26">
+        <v>22</v>
+      </c>
+      <c r="M26">
+        <v>22</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="10:17">
+      <c r="J27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K27">
+        <v>0.575</v>
+      </c>
+      <c r="L27">
+        <v>23</v>
+      </c>
+      <c r="M27">
+        <v>23</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="10:17">
+      <c r="J28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K28">
+        <v>0.5718015665796344</v>
+      </c>
+      <c r="L28">
+        <v>219</v>
+      </c>
+      <c r="M28">
+        <v>219</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
+      <c r="J29" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K29">
+        <v>0.5625</v>
+      </c>
+      <c r="L29">
+        <v>27</v>
+      </c>
+      <c r="M29">
+        <v>27</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
+      <c r="J30" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="M14">
-        <v>48</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>0.2826086956521739</v>
-      </c>
-      <c r="C15">
-        <v>13</v>
-      </c>
-      <c r="D15">
-        <v>13</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>33</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K15">
-        <v>0.803921568627451</v>
-      </c>
-      <c r="L15">
-        <v>41</v>
-      </c>
-      <c r="M15">
-        <v>41</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>0.275</v>
-      </c>
-      <c r="C16">
-        <v>22</v>
-      </c>
-      <c r="D16">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>58</v>
-      </c>
-      <c r="J16" s="1" t="s">
+      <c r="K30">
+        <v>0.5617977528089888</v>
+      </c>
+      <c r="L30">
+        <v>50</v>
+      </c>
+      <c r="M30">
+        <v>50</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
         <v>39</v>
       </c>
-      <c r="K16">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L16">
-        <v>42</v>
-      </c>
-      <c r="M16">
-        <v>42</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>0.2454545454545455</v>
-      </c>
-      <c r="C17">
-        <v>27</v>
-      </c>
-      <c r="D17">
-        <v>27</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>83</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K17">
-        <v>0.7692307692307693</v>
-      </c>
-      <c r="L17">
-        <v>10</v>
-      </c>
-      <c r="M17">
-        <v>10</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>0.2148148148148148</v>
-      </c>
-      <c r="C18">
-        <v>29</v>
-      </c>
-      <c r="D18">
-        <v>29</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>106</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K18">
-        <v>0.7692307692307693</v>
-      </c>
-      <c r="L18">
-        <v>20</v>
-      </c>
-      <c r="M18">
-        <v>20</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>0.05913978494623656</v>
-      </c>
-      <c r="C19">
-        <v>11</v>
-      </c>
-      <c r="D19">
-        <v>11</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>175</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K19">
-        <v>0.7692307692307693</v>
-      </c>
-      <c r="L19">
-        <v>30</v>
-      </c>
-      <c r="M19">
-        <v>30</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="J20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K20">
-        <v>0.7647058823529411</v>
-      </c>
-      <c r="L20">
-        <v>13</v>
-      </c>
-      <c r="M20">
-        <v>13</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="J21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K21">
-        <v>0.7586206896551724</v>
-      </c>
-      <c r="L21">
-        <v>22</v>
-      </c>
-      <c r="M21">
-        <v>22</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="J22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K22">
-        <v>0.7575757575757576</v>
-      </c>
-      <c r="L22">
-        <v>25</v>
-      </c>
-      <c r="M22">
-        <v>25</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="J23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K23">
-        <v>0.7534246575342466</v>
-      </c>
-      <c r="L23">
-        <v>55</v>
-      </c>
-      <c r="M23">
-        <v>55</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="J24" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K24">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="L24">
-        <v>16</v>
-      </c>
-      <c r="M24">
-        <v>16</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="J25" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K25">
-        <v>0.64</v>
-      </c>
-      <c r="L25">
-        <v>16</v>
-      </c>
-      <c r="M25">
-        <v>16</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="J26" s="1" t="s">
+    </row>
+    <row r="31" spans="10:17">
+      <c r="J31" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K26">
-        <v>0.6009389671361502</v>
-      </c>
-      <c r="L26">
-        <v>128</v>
-      </c>
-      <c r="M26">
-        <v>128</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="J27" s="1" t="s">
+      <c r="K31">
+        <v>0.5264705882352941</v>
+      </c>
+      <c r="L31">
+        <v>179</v>
+      </c>
+      <c r="M31">
+        <v>179</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K27">
-        <v>0.6</v>
-      </c>
-      <c r="L27">
-        <v>12</v>
-      </c>
-      <c r="M27">
-        <v>12</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="J28" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K28">
-        <v>0.5909090909090909</v>
-      </c>
-      <c r="L28">
-        <v>13</v>
-      </c>
-      <c r="M28">
-        <v>13</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="J29" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K29">
-        <v>0.5813953488372093</v>
-      </c>
-      <c r="L29">
-        <v>75</v>
-      </c>
-      <c r="M29">
-        <v>75</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="J30" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K30">
-        <v>0.5357142857142857</v>
-      </c>
-      <c r="L30">
-        <v>15</v>
-      </c>
-      <c r="M30">
-        <v>15</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="J31" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K31">
-        <v>0.5347222222222222</v>
-      </c>
-      <c r="L31">
-        <v>77</v>
-      </c>
-      <c r="M31">
-        <v>77</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="J32" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="K32">
-        <v>0.5333333333333333</v>
+        <v>0.5220338983050847</v>
       </c>
       <c r="L32">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="M32">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1884,21 +1797,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>14</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K33">
-        <v>0.52</v>
+        <v>0.4520547945205479</v>
       </c>
       <c r="L33">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M33">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1910,21 +1823,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="K34">
-        <v>0.5</v>
+        <v>0.4468085106382979</v>
       </c>
       <c r="L34">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="M34">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1936,21 +1849,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K35">
-        <v>0.5</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L35">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M35">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1962,21 +1875,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="K36">
-        <v>0.4857142857142857</v>
+        <v>0.4153846153846154</v>
       </c>
       <c r="L36">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="M36">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1988,21 +1901,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="K37">
-        <v>0.48</v>
+        <v>0.4142259414225942</v>
       </c>
       <c r="L37">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="M37">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2014,21 +1927,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>13</v>
+        <v>140</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="K38">
-        <v>0.4324324324324325</v>
+        <v>0.40625</v>
       </c>
       <c r="L38">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="M38">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2040,21 +1953,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="K39">
-        <v>0.3684210526315789</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="L39">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M39">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2066,21 +1979,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K40">
-        <v>0.34375</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="L40">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="M40">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2092,21 +2005,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="K41">
-        <v>0.2407407407407407</v>
+        <v>0.3194444444444444</v>
       </c>
       <c r="L41">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M41">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2118,21 +2031,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="K42">
-        <v>0.09022556390977443</v>
+        <v>0.2327586206896552</v>
       </c>
       <c r="L42">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="M42">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2144,21 +2057,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>121</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="K43">
-        <v>0.08080808080808081</v>
+        <v>0.1889763779527559</v>
       </c>
       <c r="L43">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="M43">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2170,21 +2083,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>182</v>
+        <v>103</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="K44">
-        <v>0.07894736842105263</v>
+        <v>0.1257861635220126</v>
       </c>
       <c r="L44">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="M44">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2196,21 +2109,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>420</v>
+        <v>139</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="K45">
-        <v>0.06306306306306306</v>
+        <v>0.1225961538461538</v>
       </c>
       <c r="L45">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="M45">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2222,411 +2135,411 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>208</v>
+        <v>365</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="K46">
-        <v>0.05853658536585366</v>
+        <v>0.1079136690647482</v>
       </c>
       <c r="L46">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="M46">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="N46">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O46">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46">
-        <v>386</v>
+        <v>372</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K47">
-        <v>0.05459057071960298</v>
+        <v>0.09813084112149532</v>
       </c>
       <c r="L47">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M47">
         <v>22</v>
       </c>
       <c r="N47">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O47">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47">
-        <v>381</v>
+        <v>193</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="K48">
-        <v>0.0539906103286385</v>
+        <v>0.07991803278688525</v>
       </c>
       <c r="L48">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="M48">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="N48">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O48">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q48">
-        <v>403</v>
+        <v>449</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="K49">
-        <v>0.05263157894736842</v>
+        <v>0.07913669064748201</v>
       </c>
       <c r="L49">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="M49">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="N49">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O49">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q49">
-        <v>198</v>
+        <v>384</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="K50">
-        <v>0.05076142131979695</v>
+        <v>0.0658882402001668</v>
       </c>
       <c r="L50">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="M50">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="N50">
-        <v>0.91</v>
+        <v>0.99</v>
       </c>
       <c r="O50">
-        <v>0.08999999999999997</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P50" t="b">
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>187</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="K51">
-        <v>0.03891891891891892</v>
+        <v>0.06215722120658135</v>
       </c>
       <c r="L51">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M51">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="N51">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O51">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>889</v>
+        <v>513</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K52">
-        <v>0.03514376996805112</v>
+        <v>0.06172839506172839</v>
       </c>
       <c r="L52">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="M52">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="N52">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="O52">
-        <v>0.15</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P52" t="b">
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>302</v>
+        <v>608</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="K53">
-        <v>0.03386004514672687</v>
+        <v>0.06085192697768763</v>
       </c>
       <c r="L53">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="M53">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="N53">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="O53">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P53" t="b">
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>428</v>
+        <v>926</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="K54">
-        <v>0.03222918531781558</v>
+        <v>0.06040268456375839</v>
       </c>
       <c r="L54">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="M54">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="N54">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="P54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>1081</v>
+        <v>840</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="K55">
-        <v>0.02816901408450704</v>
+        <v>0.05444444444444444</v>
       </c>
       <c r="L55">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="M55">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="N55">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O55">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q55">
-        <v>621</v>
+        <v>851</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="K56">
-        <v>0.02767749699157641</v>
+        <v>0.04686035613870666</v>
       </c>
       <c r="L56">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="M56">
-        <v>26</v>
+        <v>109</v>
       </c>
       <c r="N56">
-        <v>0.88</v>
+        <v>0.92</v>
       </c>
       <c r="O56">
-        <v>0.12</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P56" t="b">
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>808</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K57">
-        <v>0.02149973780807551</v>
+        <v>0.04595588235294118</v>
       </c>
       <c r="L57">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="M57">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N57">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="O57">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="P57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57">
-        <v>1866</v>
+        <v>519</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="K58">
-        <v>0.01817264008076729</v>
+        <v>0.04525455688246386</v>
       </c>
       <c r="L58">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="M58">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="N58">
-        <v>0.82</v>
+        <v>0.96</v>
       </c>
       <c r="O58">
-        <v>0.18</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P58" t="b">
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>1945</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="K59">
-        <v>0.01789473684210526</v>
+        <v>0.04508670520231214</v>
       </c>
       <c r="L59">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="M59">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="N59">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="O59">
-        <v>0.15</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P59" t="b">
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>933</v>
+        <v>826</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="K60">
-        <v>0.01782633697527315</v>
+        <v>0.04465290806754221</v>
       </c>
       <c r="L60">
-        <v>31</v>
+        <v>119</v>
       </c>
       <c r="M60">
-        <v>38</v>
+        <v>127</v>
       </c>
       <c r="N60">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O60">
-        <v>0.18</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P60" t="b">
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>1708</v>
+        <v>2546</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="K61">
-        <v>0.01705756929637527</v>
+        <v>0.04142739950779328</v>
       </c>
       <c r="L61">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="M61">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="N61">
         <v>0.9399999999999999</v>
@@ -2638,85 +2551,553 @@
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>922</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="K62">
-        <v>0.012853470437018</v>
+        <v>0.03661327231121281</v>
       </c>
       <c r="L62">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="M62">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="N62">
-        <v>0.71</v>
+        <v>0.89</v>
       </c>
       <c r="O62">
-        <v>0.29</v>
+        <v>0.11</v>
       </c>
       <c r="P62" t="b">
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>1536</v>
+        <v>842</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="K63">
-        <v>0.01261467889908257</v>
+        <v>0.03322259136212625</v>
       </c>
       <c r="L63">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="M63">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="N63">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
       <c r="O63">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="P63" t="b">
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>861</v>
+        <v>582</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K64">
+        <v>0.03258145363408521</v>
+      </c>
+      <c r="L64">
+        <v>26</v>
+      </c>
+      <c r="M64">
+        <v>29</v>
+      </c>
+      <c r="N64">
+        <v>0.9</v>
+      </c>
+      <c r="O64">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P64" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q64">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="65" spans="10:17">
+      <c r="J65" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K65">
+        <v>0.0315712187958884</v>
+      </c>
+      <c r="L65">
+        <v>43</v>
+      </c>
+      <c r="M65">
+        <v>44</v>
+      </c>
+      <c r="N65">
+        <v>0.98</v>
+      </c>
+      <c r="O65">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="P65" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q65">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="66" spans="10:17">
+      <c r="J66" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K66">
+        <v>0.0313064419024684</v>
+      </c>
+      <c r="L66">
+        <v>156</v>
+      </c>
+      <c r="M66">
+        <v>169</v>
+      </c>
+      <c r="N66">
+        <v>0.92</v>
+      </c>
+      <c r="O66">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P66" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q66">
+        <v>4827</v>
+      </c>
+    </row>
+    <row r="67" spans="10:17">
+      <c r="J67" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K67">
+        <v>0.03121045972163644</v>
+      </c>
+      <c r="L67">
+        <v>74</v>
+      </c>
+      <c r="M67">
+        <v>82</v>
+      </c>
+      <c r="N67">
+        <v>0.9</v>
+      </c>
+      <c r="O67">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P67" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q67">
+        <v>2297</v>
+      </c>
+    </row>
+    <row r="68" spans="10:17">
+      <c r="J68" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K68">
+        <v>0.03032659409020218</v>
+      </c>
+      <c r="L68">
+        <v>156</v>
+      </c>
+      <c r="M68">
+        <v>177</v>
+      </c>
+      <c r="N68">
+        <v>0.88</v>
+      </c>
+      <c r="O68">
+        <v>0.12</v>
+      </c>
+      <c r="P68" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q68">
+        <v>4988</v>
+      </c>
+    </row>
+    <row r="69" spans="10:17">
+      <c r="J69" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K69">
+        <v>0.03014553014553015</v>
+      </c>
+      <c r="L69">
+        <v>29</v>
+      </c>
+      <c r="M69">
+        <v>35</v>
+      </c>
+      <c r="N69">
+        <v>0.83</v>
+      </c>
+      <c r="O69">
+        <v>0.17</v>
+      </c>
+      <c r="P69" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q69">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="70" spans="10:17">
+      <c r="J70" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K64">
-        <v>0.01007556675062972</v>
-      </c>
-      <c r="L64">
-        <v>16</v>
-      </c>
-      <c r="M64">
-        <v>25</v>
-      </c>
-      <c r="N64">
-        <v>0.64</v>
-      </c>
-      <c r="O64">
-        <v>0.36</v>
-      </c>
-      <c r="P64" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q64">
-        <v>1572</v>
+      <c r="K70">
+        <v>0.02998696219035202</v>
+      </c>
+      <c r="L70">
+        <v>23</v>
+      </c>
+      <c r="M70">
+        <v>26</v>
+      </c>
+      <c r="N70">
+        <v>0.88</v>
+      </c>
+      <c r="O70">
+        <v>0.12</v>
+      </c>
+      <c r="P70" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q70">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="71" spans="10:17">
+      <c r="J71" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K71">
+        <v>0.0296127562642369</v>
+      </c>
+      <c r="L71">
+        <v>26</v>
+      </c>
+      <c r="M71">
+        <v>30</v>
+      </c>
+      <c r="N71">
+        <v>0.87</v>
+      </c>
+      <c r="O71">
+        <v>0.13</v>
+      </c>
+      <c r="P71" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q71">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="72" spans="10:17">
+      <c r="J72" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K72">
+        <v>0.02959094865100087</v>
+      </c>
+      <c r="L72">
+        <v>68</v>
+      </c>
+      <c r="M72">
+        <v>79</v>
+      </c>
+      <c r="N72">
+        <v>0.86</v>
+      </c>
+      <c r="O72">
+        <v>0.14</v>
+      </c>
+      <c r="P72" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q72">
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="73" spans="10:17">
+      <c r="J73" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K73">
+        <v>0.02948801036941024</v>
+      </c>
+      <c r="L73">
+        <v>91</v>
+      </c>
+      <c r="M73">
+        <v>112</v>
+      </c>
+      <c r="N73">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="O73">
+        <v>0.1899999999999999</v>
+      </c>
+      <c r="P73" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q73">
+        <v>2995</v>
+      </c>
+    </row>
+    <row r="74" spans="10:17">
+      <c r="J74" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K74">
+        <v>0.02892848877574635</v>
+      </c>
+      <c r="L74">
+        <v>125</v>
+      </c>
+      <c r="M74">
+        <v>132</v>
+      </c>
+      <c r="N74">
+        <v>0.95</v>
+      </c>
+      <c r="O74">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P74" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q74">
+        <v>4196</v>
+      </c>
+    </row>
+    <row r="75" spans="10:17">
+      <c r="J75" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K75">
+        <v>0.02692307692307692</v>
+      </c>
+      <c r="L75">
+        <v>28</v>
+      </c>
+      <c r="M75">
+        <v>28</v>
+      </c>
+      <c r="N75">
+        <v>1</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="76" spans="10:17">
+      <c r="J76" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K76">
+        <v>0.02643171806167401</v>
+      </c>
+      <c r="L76">
+        <v>30</v>
+      </c>
+      <c r="M76">
+        <v>35</v>
+      </c>
+      <c r="N76">
+        <v>0.86</v>
+      </c>
+      <c r="O76">
+        <v>0.14</v>
+      </c>
+      <c r="P76" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q76">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="77" spans="10:17">
+      <c r="J77" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K77">
+        <v>0.02568093385214008</v>
+      </c>
+      <c r="L77">
+        <v>33</v>
+      </c>
+      <c r="M77">
+        <v>37</v>
+      </c>
+      <c r="N77">
+        <v>0.89</v>
+      </c>
+      <c r="O77">
+        <v>0.11</v>
+      </c>
+      <c r="P77" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q77">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="78" spans="10:17">
+      <c r="J78" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K78">
+        <v>0.02323008849557522</v>
+      </c>
+      <c r="L78">
+        <v>21</v>
+      </c>
+      <c r="M78">
+        <v>22</v>
+      </c>
+      <c r="N78">
+        <v>0.95</v>
+      </c>
+      <c r="O78">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P78" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q78">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="79" spans="10:17">
+      <c r="J79" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K79">
+        <v>0.02322340919647004</v>
+      </c>
+      <c r="L79">
+        <v>50</v>
+      </c>
+      <c r="M79">
+        <v>55</v>
+      </c>
+      <c r="N79">
+        <v>0.91</v>
+      </c>
+      <c r="O79">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P79" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q79">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="80" spans="10:17">
+      <c r="J80" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K80">
+        <v>0.02132998745294856</v>
+      </c>
+      <c r="L80">
+        <v>51</v>
+      </c>
+      <c r="M80">
+        <v>54</v>
+      </c>
+      <c r="N80">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O80">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P80" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q80">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="81" spans="10:17">
+      <c r="J81" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K81">
+        <v>0.01885014137606032</v>
+      </c>
+      <c r="L81">
+        <v>60</v>
+      </c>
+      <c r="M81">
+        <v>78</v>
+      </c>
+      <c r="N81">
+        <v>0.77</v>
+      </c>
+      <c r="O81">
+        <v>0.23</v>
+      </c>
+      <c r="P81" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q81">
+        <v>3123</v>
+      </c>
+    </row>
+    <row r="82" spans="10:17">
+      <c r="J82" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K82">
+        <v>0.01642178046672429</v>
+      </c>
+      <c r="L82">
+        <v>19</v>
+      </c>
+      <c r="M82">
+        <v>23</v>
+      </c>
+      <c r="N82">
+        <v>0.83</v>
+      </c>
+      <c r="O82">
+        <v>0.17</v>
+      </c>
+      <c r="P82" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q82">
+        <v>1138</v>
       </c>
     </row>
   </sheetData>
